--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System SUPPLY.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System SUPPLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\Imports\sys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AA4413-2164-4984-BAF0-90BFC3278E5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1B3B93-DE89-4963-A521-440EDF48F368}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>supply_id</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>supply_name_en</t>
-  </si>
-  <si>
-    <t>เลขที่  (null)</t>
   </si>
   <si>
     <t>ชื่อ ภาษาไทย ความยาวไม่เกิน 200 ตัว</t>
@@ -46,6 +43,15 @@
   <si>
     <t>รหัส อุปกรณ์สำนักงาน
 ความยาวไม่เกิน 5 ตัว</t>
+  </si>
+  <si>
+    <t>เป็นค่าว่างได้</t>
+  </si>
+  <si>
+    <t>เพิ่มข้อมูล ต้องไม่เป็นค่าว่าง</t>
+  </si>
+  <si>
+    <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
   </si>
 </sst>
 </file>
@@ -122,7 +128,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -138,6 +144,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -481,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -518,33 +527,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FC2FBE-1F56-41DC-9800-B2E4F08F6F55}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="24.75" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="7" width="23.58203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -557,8 +569,17 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System SUPPLY.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System SUPPLY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1B3B93-DE89-4963-A521-440EDF48F368}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8CB297-2951-4A3A-AE74-41DF9244F182}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>supply_id</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
+  </si>
+  <si>
+    <t>รหัสบริษัท</t>
+  </si>
+  <si>
+    <t>company_code</t>
   </si>
 </sst>
 </file>
@@ -128,7 +134,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -146,6 +152,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -488,37 +497,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.9140625" customWidth="1"/>
-    <col min="3" max="3" width="26.4140625" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.9140625" customWidth="1"/>
+    <col min="4" max="4" width="26.4140625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="6"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -527,58 +538,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FC2FBE-1F56-41DC-9800-B2E4F08F6F55}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="24.75" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="7" width="23.58203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="5" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="8" width="23.58203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="7"/>
       <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System SUPPLY.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System SUPPLY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8CB297-2951-4A3A-AE74-41DF9244F182}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A711412E-DA7A-4C4A-AF31-F33231FA6A62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>supply_id</t>
   </si>
@@ -52,12 +52,6 @@
   </si>
   <si>
     <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
-  </si>
-  <si>
-    <t>รหัสบริษัท</t>
-  </si>
-  <si>
-    <t>company_code</t>
   </si>
 </sst>
 </file>
@@ -134,7 +128,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -152,9 +146,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -497,39 +488,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.9140625" customWidth="1"/>
-    <col min="4" max="4" width="26.4140625" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.9140625" customWidth="1"/>
+    <col min="3" max="3" width="26.4140625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C2" s="6"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -538,65 +527,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FC2FBE-1F56-41DC-9800-B2E4F08F6F55}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="5" width="24.75" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="8" width="23.58203125" style="5" customWidth="1"/>
+    <col min="1" max="4" width="24.75" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="7" width="23.58203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C1" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
